--- a/data/TH-Outbound-Train-Plan-2025.xlsx
+++ b/data/TH-Outbound-Train-Plan-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/yard_design/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E5F0B-5C38-0043-A355-850B7695FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876BB13-7101-C34F-98CC-CFA2ED83528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="760" windowWidth="15700" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9880" yWindow="760" windowWidth="15700" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet1" sheetId="1" r:id="rId1"/>
@@ -114,217 +114,217 @@
     <t>06:00</t>
   </si>
   <si>
+    <t>WAX</t>
+  </si>
+  <si>
+    <t>INTM, INTP</t>
+  </si>
+  <si>
+    <t>EFIM</t>
+  </si>
+  <si>
+    <t>MIIL, THTB, THT</t>
+  </si>
+  <si>
+    <t>INRD</t>
+  </si>
+  <si>
+    <t>WALM, TOLS</t>
+  </si>
+  <si>
+    <t>SAUH, SAUB</t>
+  </si>
+  <si>
+    <t>CBS, RUS</t>
+  </si>
+  <si>
+    <t>ESAL</t>
+  </si>
+  <si>
+    <t>MRN, WIL</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>PARA, CLEA, SEL</t>
+  </si>
+  <si>
+    <t>EVL, NAS</t>
+  </si>
+  <si>
+    <t>TUSC, DTR</t>
+  </si>
+  <si>
+    <t>BIR</t>
+  </si>
+  <si>
+    <t>RLK, ESTR</t>
+  </si>
+  <si>
+    <t>CHG, CHBR</t>
+  </si>
+  <si>
+    <t>ESUK, ESUN</t>
+  </si>
+  <si>
+    <t>CRA, LFNS, LAF</t>
+  </si>
+  <si>
+    <t>BRO, PITS, NCR</t>
+  </si>
+  <si>
+    <t>LEBN, FFT</t>
+  </si>
+  <si>
+    <t>ANS, CBL</t>
+  </si>
+  <si>
+    <t>RIP</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>LIRC, LICL</t>
+  </si>
+  <si>
+    <t>ITHWAX</t>
+  </si>
+  <si>
+    <t>LO29</t>
+  </si>
+  <si>
+    <t>Waycross GA</t>
+  </si>
+  <si>
+    <t>LO21</t>
+  </si>
+  <si>
+    <t>LO26</t>
+  </si>
+  <si>
+    <t>LO27</t>
+  </si>
+  <si>
+    <t>LO76</t>
+  </si>
+  <si>
+    <t>INRD Transfer</t>
+  </si>
+  <si>
+    <t>LIRC Transfer</t>
+  </si>
+  <si>
+    <t>Toledo OH</t>
+  </si>
+  <si>
+    <t>ITHTOL</t>
+  </si>
+  <si>
+    <t>ITHSAU</t>
+  </si>
+  <si>
+    <t>ITHRUS</t>
+  </si>
+  <si>
+    <t>ITHCIN</t>
+  </si>
+  <si>
+    <t>ITHWIL</t>
+  </si>
+  <si>
+    <t>ITHCBL</t>
+  </si>
+  <si>
+    <t>ITHALS</t>
+  </si>
+  <si>
+    <t>East St. Louis IL - A&amp;S</t>
+  </si>
+  <si>
+    <t>Salem IL</t>
+  </si>
+  <si>
+    <t>Russell KY</t>
+  </si>
+  <si>
+    <t>Willard OH</t>
+  </si>
+  <si>
+    <t>Cumberland MD</t>
+  </si>
+  <si>
+    <t>Cincinnati OH</t>
+  </si>
+  <si>
+    <t>Selkirk NY</t>
+  </si>
+  <si>
+    <t>ITHSEL</t>
+  </si>
+  <si>
+    <t>ITHNAS</t>
+  </si>
+  <si>
+    <t>ITHDTR</t>
+  </si>
+  <si>
+    <t>Decatur IL</t>
+  </si>
+  <si>
+    <t>ITHBIR</t>
+  </si>
+  <si>
+    <t>Birmingham AL</t>
+  </si>
+  <si>
+    <t>Madison IL - TRRA</t>
+  </si>
+  <si>
+    <t>ITHEST</t>
+  </si>
+  <si>
+    <t>ITHEFI</t>
+  </si>
+  <si>
+    <t>Effingham IL</t>
+  </si>
+  <si>
+    <t>ITHESU</t>
+  </si>
+  <si>
+    <t>East St. Louis IL - UP</t>
+  </si>
+  <si>
+    <t>ITHCHG</t>
+  </si>
+  <si>
+    <t>Chicago IL</t>
+  </si>
+  <si>
+    <t>Nashville TN</t>
+  </si>
+  <si>
+    <t>ITHCBLB</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Hold for Info</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>ANS, CBL, RAMP</t>
+  </si>
+  <si>
+    <t>Cumberland MD B-Train</t>
+  </si>
+  <si>
     <t>Bocks</t>
-  </si>
-  <si>
-    <t>WAX</t>
-  </si>
-  <si>
-    <t>INTM, INTP</t>
-  </si>
-  <si>
-    <t>EFIM</t>
-  </si>
-  <si>
-    <t>MIIL, THTB, THT</t>
-  </si>
-  <si>
-    <t>INRD</t>
-  </si>
-  <si>
-    <t>WALM, TOLS</t>
-  </si>
-  <si>
-    <t>SAUH, SAUB</t>
-  </si>
-  <si>
-    <t>CBS, RUS</t>
-  </si>
-  <si>
-    <t>ESAL</t>
-  </si>
-  <si>
-    <t>MRN, WIL</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>PARA, CLEA, SEL</t>
-  </si>
-  <si>
-    <t>EVL, NAS</t>
-  </si>
-  <si>
-    <t>TUSC, DTR</t>
-  </si>
-  <si>
-    <t>BIR</t>
-  </si>
-  <si>
-    <t>RLK, ESTR</t>
-  </si>
-  <si>
-    <t>CHG, CHBR</t>
-  </si>
-  <si>
-    <t>ESUK, ESUN</t>
-  </si>
-  <si>
-    <t>CRA, LFNS, LAF</t>
-  </si>
-  <si>
-    <t>BRO, PITS, NCR</t>
-  </si>
-  <si>
-    <t>LEBN, FFT</t>
-  </si>
-  <si>
-    <t>ANS, CBL</t>
-  </si>
-  <si>
-    <t>RIP</t>
-  </si>
-  <si>
-    <t>HOLD</t>
-  </si>
-  <si>
-    <t>LIRC, LICL</t>
-  </si>
-  <si>
-    <t>ITHWAX</t>
-  </si>
-  <si>
-    <t>LO29</t>
-  </si>
-  <si>
-    <t>Waycross GA</t>
-  </si>
-  <si>
-    <t>LO21</t>
-  </si>
-  <si>
-    <t>LO26</t>
-  </si>
-  <si>
-    <t>LO27</t>
-  </si>
-  <si>
-    <t>LO76</t>
-  </si>
-  <si>
-    <t>INRD Transfer</t>
-  </si>
-  <si>
-    <t>LIRC Transfer</t>
-  </si>
-  <si>
-    <t>Toledo OH</t>
-  </si>
-  <si>
-    <t>ITHTOL</t>
-  </si>
-  <si>
-    <t>ITHSAU</t>
-  </si>
-  <si>
-    <t>ITHRUS</t>
-  </si>
-  <si>
-    <t>ITHCIN</t>
-  </si>
-  <si>
-    <t>ITHWIL</t>
-  </si>
-  <si>
-    <t>ITHCBL</t>
-  </si>
-  <si>
-    <t>ITHALS</t>
-  </si>
-  <si>
-    <t>East St. Louis IL - A&amp;S</t>
-  </si>
-  <si>
-    <t>Salem IL</t>
-  </si>
-  <si>
-    <t>Russell KY</t>
-  </si>
-  <si>
-    <t>Willard OH</t>
-  </si>
-  <si>
-    <t>Cumberland MD</t>
-  </si>
-  <si>
-    <t>Cincinnati OH</t>
-  </si>
-  <si>
-    <t>Selkirk NY</t>
-  </si>
-  <si>
-    <t>ITHSEL</t>
-  </si>
-  <si>
-    <t>ITHNAS</t>
-  </si>
-  <si>
-    <t>ITHDTR</t>
-  </si>
-  <si>
-    <t>Decatur IL</t>
-  </si>
-  <si>
-    <t>ITHBIR</t>
-  </si>
-  <si>
-    <t>Birmingham AL</t>
-  </si>
-  <si>
-    <t>Madison IL - TRRA</t>
-  </si>
-  <si>
-    <t>ITHEST</t>
-  </si>
-  <si>
-    <t>ITHEFI</t>
-  </si>
-  <si>
-    <t>Effingham IL</t>
-  </si>
-  <si>
-    <t>ITHESU</t>
-  </si>
-  <si>
-    <t>East St. Louis IL - UP</t>
-  </si>
-  <si>
-    <t>ITHCHG</t>
-  </si>
-  <si>
-    <t>Chicago IL</t>
-  </si>
-  <si>
-    <t>Nashville TN</t>
-  </si>
-  <si>
-    <t>ITHCBLB</t>
-  </si>
-  <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>Hold for Info</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>ANS, CBL, RAMP</t>
-  </si>
-  <si>
-    <t>Cumberland MD B-Train</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,68 +1187,68 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1257,26 +1257,26 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1285,26 +1285,26 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1313,12 +1313,12 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1327,26 +1327,26 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1355,7 +1355,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1363,111 +1363,111 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,77 +1475,77 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2">
         <v>0.98958333333333337</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
